--- a/cyclistics_data.xlsx
+++ b/cyclistics_data.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="10845" yWindow="1845" windowWidth="10245" windowHeight="8910" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="bike_type_month" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="hour_weekday" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="general_info" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="top_casual_start_station" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bike_type_month" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hour_weekday" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="general_info" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="top_casual_start_station" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -18,22 +18,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[h]:mm:ss;@"/>
-    <numFmt numFmtId="165" formatCode="0.00_);\(0.00\)"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <name val="Arial"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <b val="1"/>
-      <sz val="11"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -52,27 +46,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -100,27 +79,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -497,27 +462,27 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>month</t>
         </is>
       </c>
-      <c r="B1" s="7" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>rideable_type</t>
         </is>
       </c>
-      <c r="C1" s="7" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>member_casual</t>
         </is>
       </c>
-      <c r="D1" s="7" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>count</t>
         </is>
       </c>
-      <c r="E1" s="7" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>average ride length(s)</t>
         </is>
@@ -538,10 +503,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>13860</v>
+        <v>13684</v>
       </c>
       <c r="E2" t="n">
-        <v>1033.742207792</v>
+        <v>789.1006284710001</v>
       </c>
     </row>
     <row r="3">
@@ -559,10 +524,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>76359</v>
+        <v>76267</v>
       </c>
       <c r="E3" t="n">
-        <v>640.3162037210001</v>
+        <v>602.018920371</v>
       </c>
     </row>
     <row r="4">
@@ -580,10 +545,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1682</v>
+        <v>1611</v>
       </c>
       <c r="E4" t="n">
-        <v>2307.323424494</v>
+        <v>1345.608317815</v>
       </c>
     </row>
     <row r="5">
@@ -601,10 +566,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>14076</v>
+        <v>14068</v>
       </c>
       <c r="E5" t="n">
-        <v>585.0420574020001</v>
+        <v>579.808572647</v>
       </c>
     </row>
     <row r="6">
@@ -622,10 +587,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>42303</v>
+        <v>42230</v>
       </c>
       <c r="E6" t="n">
-        <v>527.995177646</v>
+        <v>507.72959981</v>
       </c>
     </row>
     <row r="7">
@@ -643,10 +608,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>15446</v>
+        <v>15224</v>
       </c>
       <c r="E7" t="n">
-        <v>1219.211446329</v>
+        <v>938.577640567</v>
       </c>
     </row>
     <row r="8">
@@ -664,10 +629,10 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>74220</v>
+        <v>74129</v>
       </c>
       <c r="E8" t="n">
-        <v>668.970951226</v>
+        <v>627.115676725</v>
       </c>
     </row>
     <row r="9">
@@ -685,10 +650,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2151</v>
+        <v>2053</v>
       </c>
       <c r="E9" t="n">
-        <v>2575.920037192</v>
+        <v>1729.168533852</v>
       </c>
     </row>
     <row r="10">
@@ -706,10 +671,10 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>15177</v>
+        <v>15168</v>
       </c>
       <c r="E10" t="n">
-        <v>683.988469394</v>
+        <v>678.511075949</v>
       </c>
     </row>
     <row r="11">
@@ -727,10 +692,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>42558</v>
+        <v>42485</v>
       </c>
       <c r="E11" t="n">
-        <v>549.281521688</v>
+        <v>528.708061668</v>
       </c>
     </row>
     <row r="12">
@@ -748,10 +713,10 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>19380</v>
+        <v>19107</v>
       </c>
       <c r="E12" t="n">
-        <v>1217.272342621</v>
+        <v>953.457790338</v>
       </c>
     </row>
     <row r="13">
@@ -769,10 +734,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>87595</v>
+        <v>87493</v>
       </c>
       <c r="E13" t="n">
-        <v>670.434088703</v>
+        <v>634.3234887359999</v>
       </c>
     </row>
     <row r="14">
@@ -790,10 +755,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2944</v>
+        <v>2798</v>
       </c>
       <c r="E14" t="n">
-        <v>2514.290760869</v>
+        <v>1579.179771265</v>
       </c>
     </row>
     <row r="15">
@@ -811,10 +776,10 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>24462</v>
+        <v>24447</v>
       </c>
       <c r="E15" t="n">
-        <v>651.893303899</v>
+        <v>646.533930543</v>
       </c>
     </row>
     <row r="16">
@@ -832,10 +797,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>66052</v>
+        <v>65975</v>
       </c>
       <c r="E16" t="n">
-        <v>530.515487797</v>
+        <v>516.93612732</v>
       </c>
     </row>
     <row r="17">
@@ -853,10 +818,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>48729</v>
+        <v>47896</v>
       </c>
       <c r="E17" t="n">
-        <v>1580.759301442</v>
+        <v>1283.029605812</v>
       </c>
     </row>
     <row r="18">
@@ -874,10 +839,10 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>120791</v>
+        <v>120619</v>
       </c>
       <c r="E18" t="n">
-        <v>770.471607984</v>
+        <v>730.320272925</v>
       </c>
     </row>
     <row r="19">
@@ -895,10 +860,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>8660</v>
+        <v>8169</v>
       </c>
       <c r="E19" t="n">
-        <v>3070.924826789</v>
+        <v>2107.736932305</v>
       </c>
     </row>
     <row r="20">
@@ -916,10 +881,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>53137</v>
+        <v>53071</v>
       </c>
       <c r="E20" t="n">
-        <v>873.2802190560001</v>
+        <v>862.206553484</v>
       </c>
     </row>
     <row r="21">
@@ -937,10 +902,10 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>92856</v>
+        <v>92777</v>
       </c>
       <c r="E21" t="n">
-        <v>593.119356853</v>
+        <v>583.149024003</v>
       </c>
     </row>
     <row r="22">
@@ -958,10 +923,10 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>92288</v>
+        <v>90732</v>
       </c>
       <c r="E22" t="n">
-        <v>1623.972358269</v>
+        <v>1363.117973812</v>
       </c>
     </row>
     <row r="23">
@@ -979,10 +944,10 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>177166</v>
+        <v>176858</v>
       </c>
       <c r="E23" t="n">
-        <v>824.4133524490001</v>
+        <v>782.022108131</v>
       </c>
     </row>
     <row r="24">
@@ -1000,10 +965,10 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>12808</v>
+        <v>11918</v>
       </c>
       <c r="E24" t="n">
-        <v>3226.023657089</v>
+        <v>2149.919869105</v>
       </c>
     </row>
     <row r="25">
@@ -1021,10 +986,10 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>71929</v>
+        <v>71790</v>
       </c>
       <c r="E25" t="n">
-        <v>963.6621668580001</v>
+        <v>947.0191391549999</v>
       </c>
     </row>
     <row r="26">
@@ -1042,10 +1007,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>108996</v>
+        <v>108879</v>
       </c>
       <c r="E26" t="n">
-        <v>659.736338948</v>
+        <v>648.627963151</v>
       </c>
     </row>
     <row r="27">
@@ -1063,10 +1028,10 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>115205</v>
+        <v>113148</v>
       </c>
       <c r="E27" t="n">
-        <v>1591.353326678</v>
+        <v>1315.277866157</v>
       </c>
     </row>
     <row r="28">
@@ -1084,10 +1049,10 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>194704</v>
+        <v>194352</v>
       </c>
       <c r="E28" t="n">
-        <v>842.028925959</v>
+        <v>801.7189429479999</v>
       </c>
     </row>
     <row r="29">
@@ -1105,10 +1070,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>14470</v>
+        <v>13347</v>
       </c>
       <c r="E29" t="n">
-        <v>3398.774015203</v>
+        <v>2119.465048325</v>
       </c>
     </row>
     <row r="30">
@@ -1126,10 +1091,10 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>87893</v>
+        <v>87738</v>
       </c>
       <c r="E30" t="n">
-        <v>966.4257676940001</v>
+        <v>951.031935991</v>
       </c>
     </row>
     <row r="31">
@@ -1147,10 +1112,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>116579</v>
+        <v>116467</v>
       </c>
       <c r="E31" t="n">
-        <v>691.931308383</v>
+        <v>681.125984184</v>
       </c>
     </row>
     <row r="32">
@@ -1168,10 +1133,10 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>155665</v>
+        <v>153272</v>
       </c>
       <c r="E32" t="n">
-        <v>1489.130504609</v>
+        <v>1299.318544809</v>
       </c>
     </row>
     <row r="33">
@@ -1189,10 +1154,10 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>216985</v>
+        <v>216690</v>
       </c>
       <c r="E33" t="n">
-        <v>864.1133165880001</v>
+        <v>839.4766486680001</v>
       </c>
     </row>
     <row r="34">
@@ -1210,10 +1175,10 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>30595</v>
+        <v>28162</v>
       </c>
       <c r="E34" t="n">
-        <v>3256.040039222</v>
+        <v>2199.872487749</v>
       </c>
     </row>
     <row r="35">
@@ -1231,10 +1196,10 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>125389</v>
+        <v>124904</v>
       </c>
       <c r="E35" t="n">
-        <v>1099.189410554</v>
+        <v>1067.081118298</v>
       </c>
     </row>
     <row r="36">
@@ -1252,10 +1217,10 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>113995</v>
+        <v>113931</v>
       </c>
       <c r="E36" t="n">
-        <v>707.683889644</v>
+        <v>701.986386497</v>
       </c>
     </row>
     <row r="37">
@@ -1273,10 +1238,10 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>128299</v>
+        <v>126370</v>
       </c>
       <c r="E37" t="n">
-        <v>1441.305949383</v>
+        <v>1254.181696605</v>
       </c>
     </row>
     <row r="38">
@@ -1294,10 +1259,10 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>215318</v>
+        <v>215029</v>
       </c>
       <c r="E38" t="n">
-        <v>838.997064806</v>
+        <v>809.632407721</v>
       </c>
     </row>
     <row r="39">
@@ -1315,10 +1280,10 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>25888</v>
+        <v>24115</v>
       </c>
       <c r="E39" t="n">
-        <v>2924.936495673</v>
+        <v>2093.343810906</v>
       </c>
     </row>
     <row r="40">
@@ -1336,10 +1301,10 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>115887</v>
+        <v>115572</v>
       </c>
       <c r="E40" t="n">
-        <v>1006.953463287</v>
+        <v>983.6892846010001</v>
       </c>
     </row>
     <row r="41">
@@ -1357,10 +1322,10 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>119883</v>
+        <v>119791</v>
       </c>
       <c r="E41" t="n">
-        <v>691.9823661400001</v>
+        <v>683.495963803</v>
       </c>
     </row>
     <row r="42">
@@ -1378,10 +1343,10 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>105079</v>
+        <v>103578</v>
       </c>
       <c r="E42" t="n">
-        <v>1386.261165408</v>
+        <v>1189.409334028</v>
       </c>
     </row>
     <row r="43">
@@ -1399,10 +1364,10 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>200664</v>
+        <v>200340</v>
       </c>
       <c r="E43" t="n">
-        <v>808.6756069840001</v>
+        <v>771.486727563</v>
       </c>
     </row>
     <row r="44">
@@ -1420,10 +1385,10 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>19488</v>
+        <v>18276</v>
       </c>
       <c r="E44" t="n">
-        <v>2711.834872742</v>
+        <v>1978.581418253</v>
       </c>
     </row>
     <row r="45">
@@ -1441,10 +1406,10 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>96338</v>
+        <v>96186</v>
       </c>
       <c r="E45" t="n">
-        <v>939.3177769930001</v>
+        <v>925.697055704</v>
       </c>
     </row>
     <row r="46">
@@ -1462,10 +1427,10 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>113550</v>
+        <v>113424</v>
       </c>
       <c r="E46" t="n">
-        <v>666.647256715</v>
+        <v>654.278600648</v>
       </c>
     </row>
     <row r="47">
@@ -1483,10 +1448,10 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>61401</v>
+        <v>60580</v>
       </c>
       <c r="E47" t="n">
-        <v>1372.030080943</v>
+        <v>1180.85295477</v>
       </c>
     </row>
     <row r="48">
@@ -1504,10 +1469,10 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>151884</v>
+        <v>151638</v>
       </c>
       <c r="E48" t="n">
-        <v>763.190428221</v>
+        <v>719.466848679</v>
       </c>
     </row>
     <row r="49">
@@ -1525,10 +1490,10 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>12396</v>
+        <v>11625</v>
       </c>
       <c r="E49" t="n">
-        <v>2734.516618263</v>
+        <v>1914.081548387</v>
       </c>
     </row>
     <row r="50">
@@ -1546,10 +1511,10 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>77515</v>
+        <v>77413</v>
       </c>
       <c r="E50" t="n">
-        <v>873.318402889</v>
+        <v>862.26278532</v>
       </c>
     </row>
     <row r="51">
@@ -1567,10 +1532,10 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>111042</v>
+        <v>110926</v>
       </c>
       <c r="E51" t="n">
-        <v>614.8488049560001</v>
+        <v>602.576447361</v>
       </c>
     </row>
     <row r="52">
@@ -1588,10 +1553,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>32945</v>
+        <v>32631</v>
       </c>
       <c r="E52" t="n">
-        <v>1128.042950371</v>
+        <v>969.560601881</v>
       </c>
     </row>
     <row r="53">
@@ -1609,10 +1574,10 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>111497</v>
+        <v>111383</v>
       </c>
       <c r="E53" t="n">
-        <v>691.948294572</v>
+        <v>658.323747789</v>
       </c>
     </row>
     <row r="54">
@@ -1630,10 +1595,10 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>5794</v>
+        <v>5568</v>
       </c>
       <c r="E54" t="n">
-        <v>2382.121850189</v>
+        <v>1766.150862068</v>
       </c>
     </row>
     <row r="55">
@@ -1651,10 +1616,10 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>34794</v>
+        <v>34760</v>
       </c>
       <c r="E55" t="n">
-        <v>722.1604586990001</v>
+        <v>713.847842347</v>
       </c>
     </row>
     <row r="56">
@@ -1672,10 +1637,10 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>70722</v>
+        <v>70609</v>
       </c>
       <c r="E56" t="n">
-        <v>582.999109188</v>
+        <v>564.520656007</v>
       </c>
     </row>
     <row r="57">
@@ -1693,10 +1658,10 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>12599</v>
+        <v>12414</v>
       </c>
       <c r="E57" t="n">
-        <v>1049.118183982</v>
+        <v>827.011035927</v>
       </c>
     </row>
     <row r="58">
@@ -1714,10 +1679,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>60669</v>
+        <v>60608</v>
       </c>
       <c r="E58" t="n">
-        <v>654.283851719</v>
+        <v>626.299712909</v>
       </c>
     </row>
     <row r="59">
@@ -1735,10 +1700,10 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1872</v>
+        <v>1801</v>
       </c>
       <c r="E59" t="n">
-        <v>2290.019230769</v>
+        <v>1386.325374791</v>
       </c>
     </row>
     <row r="60">
@@ -1756,10 +1721,10 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>17031</v>
+        <v>17026</v>
       </c>
       <c r="E60" t="n">
-        <v>619.3480124470001</v>
+        <v>616.120991424</v>
       </c>
     </row>
     <row r="61">
@@ -1777,10 +1742,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>43222</v>
+        <v>43123</v>
       </c>
       <c r="E61" t="n">
-        <v>552.811207255</v>
+        <v>526.328432622</v>
       </c>
     </row>
   </sheetData>
@@ -1803,27 +1768,27 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>hour</t>
         </is>
       </c>
-      <c r="B1" s="7" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>start_weekday</t>
         </is>
       </c>
-      <c r="C1" s="7" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>member_casual</t>
         </is>
       </c>
-      <c r="D1" s="7" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>count</t>
         </is>
       </c>
-      <c r="E1" s="7" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>average ride length(s)</t>
         </is>
@@ -1844,10 +1809,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3624</v>
+        <v>3578</v>
       </c>
       <c r="E2" t="n">
-        <v>1201.588852097</v>
+        <v>862.20626048</v>
       </c>
     </row>
     <row r="3">
@@ -1865,10 +1830,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3342</v>
+        <v>3339</v>
       </c>
       <c r="E3" t="n">
-        <v>661.594853381</v>
+        <v>629.187780772</v>
       </c>
     </row>
     <row r="4">
@@ -1886,10 +1851,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2399</v>
+        <v>2369</v>
       </c>
       <c r="E4" t="n">
-        <v>1295.75114631</v>
+        <v>1038.304347826</v>
       </c>
     </row>
     <row r="5">
@@ -1910,7 +1875,7 @@
         <v>2004</v>
       </c>
       <c r="E5" t="n">
-        <v>679.9111776440001</v>
+        <v>679.911177644</v>
       </c>
     </row>
     <row r="6">
@@ -1928,10 +1893,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>8254</v>
+        <v>8156</v>
       </c>
       <c r="E6" t="n">
-        <v>1163.906954204</v>
+        <v>920.457699852</v>
       </c>
     </row>
     <row r="7">
@@ -1949,10 +1914,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>6463</v>
+        <v>6457</v>
       </c>
       <c r="E7" t="n">
-        <v>685.0574036820001</v>
+        <v>663.48087347</v>
       </c>
     </row>
     <row r="8">
@@ -1970,10 +1935,10 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>9999</v>
+        <v>9899</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.0730073</v>
+        <v>965.964844933</v>
       </c>
     </row>
     <row r="9">
@@ -1991,10 +1956,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>6896</v>
+        <v>6878</v>
       </c>
       <c r="E9" t="n">
-        <v>742.0752610200001</v>
+        <v>679.86551323</v>
       </c>
     </row>
     <row r="10">
@@ -2012,10 +1977,10 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2328</v>
+        <v>2316</v>
       </c>
       <c r="E10" t="n">
-        <v>1023.198453608</v>
+        <v>899.061744386</v>
       </c>
     </row>
     <row r="11">
@@ -2033,10 +1998,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2451</v>
+        <v>2448</v>
       </c>
       <c r="E11" t="n">
-        <v>673.457364341</v>
+        <v>650.684640522</v>
       </c>
     </row>
     <row r="12">
@@ -2054,10 +2019,10 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1720</v>
+        <v>1697</v>
       </c>
       <c r="E12" t="n">
-        <v>1262.34244186</v>
+        <v>980.582793164</v>
       </c>
     </row>
     <row r="13">
@@ -2075,10 +2040,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1733</v>
+        <v>1730</v>
       </c>
       <c r="E13" t="n">
-        <v>720.036353144</v>
+        <v>639.003468208</v>
       </c>
     </row>
     <row r="14">
@@ -2096,10 +2061,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1880</v>
+        <v>1859</v>
       </c>
       <c r="E14" t="n">
-        <v>1195.525531914</v>
+        <v>939.060785368</v>
       </c>
     </row>
     <row r="15">
@@ -2117,10 +2082,10 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2023</v>
+        <v>2017</v>
       </c>
       <c r="E15" t="n">
-        <v>708.521008403</v>
+        <v>645.603867129</v>
       </c>
     </row>
     <row r="16">
@@ -2138,10 +2103,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2136</v>
+        <v>2097</v>
       </c>
       <c r="E16" t="n">
-        <v>1210.32818352</v>
+        <v>891.711492608</v>
       </c>
     </row>
     <row r="17">
@@ -2159,10 +2124,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1830</v>
+        <v>1826</v>
       </c>
       <c r="E17" t="n">
-        <v>729.9054644800001</v>
+        <v>645.652245345</v>
       </c>
     </row>
     <row r="18">
@@ -2180,10 +2145,10 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1424</v>
+        <v>1401</v>
       </c>
       <c r="E18" t="n">
-        <v>1446.525280898</v>
+        <v>1067.825838686</v>
       </c>
     </row>
     <row r="19">
@@ -2201,10 +2166,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="E19" t="n">
-        <v>725.4216867460001</v>
+        <v>684.78737233</v>
       </c>
     </row>
     <row r="20">
@@ -2222,10 +2187,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>6235</v>
+        <v>6162</v>
       </c>
       <c r="E20" t="n">
-        <v>1203.320609462</v>
+        <v>906.667802661</v>
       </c>
     </row>
     <row r="21">
@@ -2243,10 +2208,10 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>4588</v>
+        <v>4576</v>
       </c>
       <c r="E21" t="n">
-        <v>699.379468177</v>
+        <v>639.4582604890001</v>
       </c>
     </row>
     <row r="22">
@@ -2264,10 +2229,10 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>6550</v>
+        <v>6459</v>
       </c>
       <c r="E22" t="n">
-        <v>1268.984732824</v>
+        <v>953.7755070440001</v>
       </c>
     </row>
     <row r="23">
@@ -2285,10 +2250,10 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>4710</v>
+        <v>4704</v>
       </c>
       <c r="E23" t="n">
-        <v>707.267940552</v>
+        <v>671.057823129</v>
       </c>
     </row>
     <row r="24">
@@ -2306,10 +2271,10 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1214</v>
+        <v>1191</v>
       </c>
       <c r="E24" t="n">
-        <v>1285.617792421</v>
+        <v>914.749790092</v>
       </c>
     </row>
     <row r="25">
@@ -2327,10 +2292,10 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="E25" t="n">
-        <v>712.1279373360001</v>
+        <v>630.033187772</v>
       </c>
     </row>
     <row r="26">
@@ -2348,10 +2313,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>986</v>
+        <v>973</v>
       </c>
       <c r="E26" t="n">
-        <v>1269.766734279</v>
+        <v>1050.580678314</v>
       </c>
     </row>
     <row r="27">
@@ -2369,10 +2334,10 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="E27" t="n">
-        <v>725.4004237280001</v>
+        <v>677.9055201690001</v>
       </c>
     </row>
     <row r="28">
@@ -2390,10 +2355,10 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>962</v>
+        <v>949</v>
       </c>
       <c r="E28" t="n">
-        <v>1279.328482328</v>
+        <v>910.242360379</v>
       </c>
     </row>
     <row r="29">
@@ -2414,7 +2379,7 @@
         <v>949</v>
       </c>
       <c r="E29" t="n">
-        <v>737.9978925180001</v>
+        <v>737.997892518</v>
       </c>
     </row>
     <row r="30">
@@ -2432,10 +2397,10 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1200</v>
+        <v>1188</v>
       </c>
       <c r="E30" t="n">
-        <v>1212.9025</v>
+        <v>1000.145622895</v>
       </c>
     </row>
     <row r="31">
@@ -2453,10 +2418,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="E31" t="n">
-        <v>718.4974515800001</v>
+        <v>663.4116445350001</v>
       </c>
     </row>
     <row r="32">
@@ -2474,10 +2439,10 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="E32" t="n">
-        <v>1661.185061315</v>
+        <v>1210.42808607</v>
       </c>
     </row>
     <row r="33">
@@ -2495,10 +2460,10 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E33" t="n">
-        <v>732.262595419</v>
+        <v>655.540581929</v>
       </c>
     </row>
     <row r="34">
@@ -2516,10 +2481,10 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>3348</v>
+        <v>3302</v>
       </c>
       <c r="E34" t="n">
-        <v>1231.377837514</v>
+        <v>877.061175045</v>
       </c>
     </row>
     <row r="35">
@@ -2537,10 +2502,10 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2328</v>
+        <v>2324</v>
       </c>
       <c r="E35" t="n">
-        <v>727.015463917</v>
+        <v>656.966006884</v>
       </c>
     </row>
     <row r="36">
@@ -2558,10 +2523,10 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>4246</v>
+        <v>4197</v>
       </c>
       <c r="E36" t="n">
-        <v>1238.753179463</v>
+        <v>940.79985704</v>
       </c>
     </row>
     <row r="37">
@@ -2579,10 +2544,10 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>2831</v>
+        <v>2827</v>
       </c>
       <c r="E37" t="n">
-        <v>702.447191805</v>
+        <v>655.056950831</v>
       </c>
     </row>
     <row r="38">
@@ -2600,10 +2565,10 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="E38" t="n">
-        <v>1037.488711819</v>
+        <v>886.998666666</v>
       </c>
     </row>
     <row r="39">
@@ -2621,10 +2586,10 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="E39" t="n">
-        <v>721.793352601</v>
+        <v>651.659420289</v>
       </c>
     </row>
     <row r="40">
@@ -2642,10 +2607,10 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>1550.091932457</v>
+        <v>967.640535372</v>
       </c>
     </row>
     <row r="41">
@@ -2663,10 +2628,10 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E41" t="n">
-        <v>729.303030303</v>
+        <v>646.9608695650001</v>
       </c>
     </row>
     <row r="42">
@@ -2684,10 +2649,10 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="E42" t="n">
-        <v>1200.363148479</v>
+        <v>917.078039927</v>
       </c>
     </row>
     <row r="43">
@@ -2705,10 +2670,10 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E43" t="n">
-        <v>692.620253164</v>
+        <v>661.504237288</v>
       </c>
     </row>
     <row r="44">
@@ -2726,10 +2691,10 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="E44" t="n">
-        <v>1192.132290184</v>
+        <v>891.61637931</v>
       </c>
     </row>
     <row r="45">
@@ -2747,10 +2712,10 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="E45" t="n">
-        <v>834.7062500000001</v>
+        <v>687.414173228</v>
       </c>
     </row>
     <row r="46">
@@ -2768,10 +2733,10 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="E46" t="n">
-        <v>1215.022590361</v>
+        <v>928.3176291790001</v>
       </c>
     </row>
     <row r="47">
@@ -2792,7 +2757,7 @@
         <v>499</v>
       </c>
       <c r="E47" t="n">
-        <v>634.4268537070001</v>
+        <v>634.426853707</v>
       </c>
     </row>
     <row r="48">
@@ -2810,10 +2775,10 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1573</v>
+        <v>1550</v>
       </c>
       <c r="E48" t="n">
-        <v>1203.148124602</v>
+        <v>866.20516129</v>
       </c>
     </row>
     <row r="49">
@@ -2831,10 +2796,10 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="E49" t="n">
-        <v>668.7269108280001</v>
+        <v>650.06937799</v>
       </c>
     </row>
     <row r="50">
@@ -2852,10 +2817,10 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>2126</v>
+        <v>2111</v>
       </c>
       <c r="E50" t="n">
-        <v>1119.747412982</v>
+        <v>918.4557081950001</v>
       </c>
     </row>
     <row r="51">
@@ -2873,10 +2838,10 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1601</v>
+        <v>1597</v>
       </c>
       <c r="E51" t="n">
-        <v>722.535290443</v>
+        <v>643.185347526</v>
       </c>
     </row>
     <row r="52">
@@ -2894,10 +2859,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="E52" t="n">
-        <v>1142.132034632</v>
+        <v>814.326039387</v>
       </c>
     </row>
     <row r="53">
@@ -2936,10 +2901,10 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E54" t="n">
-        <v>751.646575342</v>
+        <v>730.815934065</v>
       </c>
     </row>
     <row r="55">
@@ -2957,10 +2922,10 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E55" t="n">
-        <v>747.977040816</v>
+        <v>621.3393316189999</v>
       </c>
     </row>
     <row r="56">
@@ -2978,10 +2943,10 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E56" t="n">
-        <v>1107.008042895</v>
+        <v>845.436657681</v>
       </c>
     </row>
     <row r="57">
@@ -2999,10 +2964,10 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E57" t="n">
-        <v>810.6949152540001</v>
+        <v>731.603399433</v>
       </c>
     </row>
     <row r="58">
@@ -3020,10 +2985,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="E58" t="n">
-        <v>1026.309716599</v>
+        <v>797.950718685</v>
       </c>
     </row>
     <row r="59">
@@ -3041,10 +3006,10 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="E59" t="n">
-        <v>726.9902807770001</v>
+        <v>679.727765726</v>
       </c>
     </row>
     <row r="60">
@@ -3062,10 +3027,10 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E60" t="n">
-        <v>927.8998272880001</v>
+        <v>863.357019064</v>
       </c>
     </row>
     <row r="61">
@@ -3083,10 +3048,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E61" t="n">
-        <v>684.151764705</v>
+        <v>644.139150943</v>
       </c>
     </row>
     <row r="62">
@@ -3104,10 +3069,10 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>705</v>
+        <v>689</v>
       </c>
       <c r="E62" t="n">
-        <v>1485.391489361</v>
+        <v>889.380261248</v>
       </c>
     </row>
     <row r="63">
@@ -3125,10 +3090,10 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="E63" t="n">
-        <v>788.4938101780001</v>
+        <v>717.012430939</v>
       </c>
     </row>
     <row r="64">
@@ -3146,10 +3111,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1115</v>
+        <v>1104</v>
       </c>
       <c r="E64" t="n">
-        <v>1176.531838565</v>
+        <v>937.554347826</v>
       </c>
     </row>
     <row r="65">
@@ -3167,10 +3132,10 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="E65" t="n">
-        <v>868.7700421940001</v>
+        <v>739.298728813</v>
       </c>
     </row>
     <row r="66">
@@ -3209,10 +3174,10 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E67" t="n">
-        <v>632.192532088</v>
+        <v>622.977803738</v>
       </c>
     </row>
     <row r="68">
@@ -3230,10 +3195,10 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E68" t="n">
-        <v>1046.675</v>
+        <v>757.75</v>
       </c>
     </row>
     <row r="69">
@@ -3272,10 +3237,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E70" t="n">
-        <v>738</v>
+        <v>658.556277056</v>
       </c>
     </row>
     <row r="71">
@@ -3293,10 +3258,10 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E71" t="n">
-        <v>691.092345078</v>
+        <v>677.03163017</v>
       </c>
     </row>
     <row r="72">
@@ -3314,10 +3279,10 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1295</v>
+        <v>1286</v>
       </c>
       <c r="E72" t="n">
-        <v>906.772200772</v>
+        <v>759.010108864</v>
       </c>
     </row>
     <row r="73">
@@ -3335,10 +3300,10 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>4108</v>
+        <v>4098</v>
       </c>
       <c r="E73" t="n">
-        <v>624.99415774</v>
+        <v>578.216691068</v>
       </c>
     </row>
     <row r="74">
@@ -3356,10 +3321,10 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="E74" t="n">
-        <v>716.685430463</v>
+        <v>672.828073089</v>
       </c>
     </row>
     <row r="75">
@@ -3377,10 +3342,10 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>4038</v>
+        <v>4030</v>
       </c>
       <c r="E75" t="n">
-        <v>601.425953442</v>
+        <v>555.803722084</v>
       </c>
     </row>
     <row r="76">
@@ -3398,10 +3363,10 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>869</v>
+        <v>850</v>
       </c>
       <c r="E76" t="n">
-        <v>1178.912543153</v>
+        <v>890.482352941</v>
       </c>
     </row>
     <row r="77">
@@ -3440,10 +3405,10 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>1027</v>
+        <v>1007</v>
       </c>
       <c r="E78" t="n">
-        <v>1259.678675754</v>
+        <v>977.336643495</v>
       </c>
     </row>
     <row r="79">
@@ -3461,10 +3426,10 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="E79" t="n">
-        <v>706.6913010000001</v>
+        <v>673.144290123</v>
       </c>
     </row>
     <row r="80">
@@ -3482,10 +3447,10 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1290</v>
+        <v>1282</v>
       </c>
       <c r="E80" t="n">
-        <v>704.6054263560001</v>
+        <v>586.68876755</v>
       </c>
     </row>
     <row r="81">
@@ -3503,10 +3468,10 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>4586</v>
+        <v>4581</v>
       </c>
       <c r="E81" t="n">
-        <v>578.087221979</v>
+        <v>559.623226369</v>
       </c>
     </row>
     <row r="82">
@@ -3524,10 +3489,10 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1369</v>
+        <v>1359</v>
       </c>
       <c r="E82" t="n">
-        <v>717.927684441</v>
+        <v>597.7991169970001</v>
       </c>
     </row>
     <row r="83">
@@ -3545,10 +3510,10 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>5221</v>
+        <v>5218</v>
       </c>
       <c r="E83" t="n">
-        <v>551.6123348010001</v>
+        <v>546.922958988</v>
       </c>
     </row>
     <row r="84">
@@ -3566,10 +3531,10 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1434</v>
+        <v>1428</v>
       </c>
       <c r="E84" t="n">
-        <v>692.1980474190001</v>
+        <v>625.8088235290001</v>
       </c>
     </row>
     <row r="85">
@@ -3587,10 +3552,10 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>5135</v>
+        <v>5125</v>
       </c>
       <c r="E85" t="n">
-        <v>610.068159688</v>
+        <v>570.504585365</v>
       </c>
     </row>
     <row r="86">
@@ -3608,10 +3573,10 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>4293</v>
+        <v>4238</v>
       </c>
       <c r="E86" t="n">
-        <v>1228.986489634</v>
+        <v>1064.725106182</v>
       </c>
     </row>
     <row r="87">
@@ -3629,10 +3594,10 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>12766</v>
+        <v>12743</v>
       </c>
       <c r="E87" t="n">
-        <v>669.289754034</v>
+        <v>645.341128462</v>
       </c>
     </row>
     <row r="88">
@@ -3650,10 +3615,10 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>3165</v>
+        <v>3157</v>
       </c>
       <c r="E88" t="n">
-        <v>697.8328593990001</v>
+        <v>634.285714285</v>
       </c>
     </row>
     <row r="89">
@@ -3671,10 +3636,10 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>13012</v>
+        <v>13008</v>
       </c>
       <c r="E89" t="n">
-        <v>594.3375345830001</v>
+        <v>588.966943419</v>
       </c>
     </row>
     <row r="90">
@@ -3692,10 +3657,10 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1761</v>
+        <v>1724</v>
       </c>
       <c r="E90" t="n">
-        <v>1278.944349801</v>
+        <v>987.5516241289999</v>
       </c>
     </row>
     <row r="91">
@@ -3713,10 +3678,10 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>3895</v>
+        <v>3889</v>
       </c>
       <c r="E91" t="n">
-        <v>770.161745827</v>
+        <v>745.185908974</v>
       </c>
     </row>
     <row r="92">
@@ -3734,10 +3699,10 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>1773</v>
+        <v>1703</v>
       </c>
       <c r="E92" t="n">
-        <v>1515.944162436</v>
+        <v>1020.656488549</v>
       </c>
     </row>
     <row r="93">
@@ -3755,10 +3720,10 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>3127</v>
+        <v>3118</v>
       </c>
       <c r="E93" t="n">
-        <v>780.9645027180001</v>
+        <v>744.4974342519999</v>
       </c>
     </row>
     <row r="94">
@@ -3776,10 +3741,10 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>4169</v>
+        <v>4156</v>
       </c>
       <c r="E94" t="n">
-        <v>686.769728951</v>
+        <v>638.316650625</v>
       </c>
     </row>
     <row r="95">
@@ -3797,10 +3762,10 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>15413</v>
+        <v>15400</v>
       </c>
       <c r="E95" t="n">
-        <v>604.653474339</v>
+        <v>587.459740259</v>
       </c>
     </row>
     <row r="96">
@@ -3818,10 +3783,10 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>4184</v>
+        <v>4172</v>
       </c>
       <c r="E96" t="n">
-        <v>654.5537762900001</v>
+        <v>605.641658676</v>
       </c>
     </row>
     <row r="97">
@@ -3839,10 +3804,10 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>17482</v>
+        <v>17471</v>
       </c>
       <c r="E97" t="n">
-        <v>596.327594096</v>
+        <v>588.030622173</v>
       </c>
     </row>
     <row r="98">
@@ -3860,10 +3825,10 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4080</v>
+        <v>4066</v>
       </c>
       <c r="E98" t="n">
-        <v>709.1264705880001</v>
+        <v>647.444663059</v>
       </c>
     </row>
     <row r="99">
@@ -3881,10 +3846,10 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>16337</v>
+        <v>16324</v>
       </c>
       <c r="E99" t="n">
-        <v>609.5902552480001</v>
+        <v>595.833190394</v>
       </c>
     </row>
     <row r="100">
@@ -3902,10 +3867,10 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>6033</v>
+        <v>6000</v>
       </c>
       <c r="E100" t="n">
-        <v>863.242831095</v>
+        <v>769.939333333</v>
       </c>
     </row>
     <row r="101">
@@ -3923,10 +3888,10 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>21305</v>
+        <v>21280</v>
       </c>
       <c r="E101" t="n">
-        <v>667.314339356</v>
+        <v>648.08012218</v>
       </c>
     </row>
     <row r="102">
@@ -3944,10 +3909,10 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>5202</v>
+        <v>5168</v>
       </c>
       <c r="E102" t="n">
-        <v>802.116109188</v>
+        <v>715.717685758</v>
       </c>
     </row>
     <row r="103">
@@ -3965,10 +3930,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>23156</v>
+        <v>23144</v>
       </c>
       <c r="E103" t="n">
-        <v>631.7610554490001</v>
+        <v>621.194650881</v>
       </c>
     </row>
     <row r="104">
@@ -3986,10 +3951,10 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>3379</v>
+        <v>3329</v>
       </c>
       <c r="E104" t="n">
-        <v>1239.592778928</v>
+        <v>1045.972964854</v>
       </c>
     </row>
     <row r="105">
@@ -4007,10 +3972,10 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>7118</v>
+        <v>7107</v>
       </c>
       <c r="E105" t="n">
-        <v>755.543270581</v>
+        <v>719.978471929</v>
       </c>
     </row>
     <row r="106">
@@ -4028,10 +3993,10 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>2930</v>
+        <v>2815</v>
       </c>
       <c r="E106" t="n">
-        <v>1643.374744027</v>
+        <v>1184.501953818</v>
       </c>
     </row>
     <row r="107">
@@ -4049,10 +4014,10 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>5663</v>
+        <v>5649</v>
       </c>
       <c r="E107" t="n">
-        <v>769.313438107</v>
+        <v>743.248893609</v>
       </c>
     </row>
     <row r="108">
@@ -4070,10 +4035,10 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>7428</v>
+        <v>7391</v>
       </c>
       <c r="E108" t="n">
-        <v>724.3330640810001</v>
+        <v>655.483425788</v>
       </c>
     </row>
     <row r="109">
@@ -4091,10 +4056,10 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>30087</v>
+        <v>30058</v>
       </c>
       <c r="E109" t="n">
-        <v>654.373284142</v>
+        <v>638.817486193</v>
       </c>
     </row>
     <row r="110">
@@ -4112,10 +4077,10 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>7430</v>
+        <v>7396</v>
       </c>
       <c r="E110" t="n">
-        <v>718.1110363390001</v>
+        <v>645.2148458619999</v>
       </c>
     </row>
     <row r="111">
@@ -4133,10 +4098,10 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>32703</v>
+        <v>32679</v>
       </c>
       <c r="E111" t="n">
-        <v>652.884108491</v>
+        <v>634.590379142</v>
       </c>
     </row>
     <row r="112">
@@ -4154,10 +4119,10 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>7473</v>
+        <v>7443</v>
       </c>
       <c r="E112" t="n">
-        <v>713.857486953</v>
+        <v>654.742308209</v>
       </c>
     </row>
     <row r="113">
@@ -4175,10 +4140,10 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>31874</v>
+        <v>31850</v>
       </c>
       <c r="E113" t="n">
-        <v>659.960281106</v>
+        <v>644.494693877</v>
       </c>
     </row>
     <row r="114">
@@ -4196,10 +4161,10 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>7492</v>
+        <v>7432</v>
       </c>
       <c r="E114" t="n">
-        <v>970.864522156</v>
+        <v>845.600780409</v>
       </c>
     </row>
     <row r="115">
@@ -4217,10 +4182,10 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>24444</v>
+        <v>24415</v>
       </c>
       <c r="E115" t="n">
-        <v>646.752577319</v>
+        <v>622.347696088</v>
       </c>
     </row>
     <row r="116">
@@ -4238,10 +4203,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>6994</v>
+        <v>6945</v>
       </c>
       <c r="E116" t="n">
-        <v>950.4991421210001</v>
+        <v>832.375665946</v>
       </c>
     </row>
     <row r="117">
@@ -4259,10 +4224,10 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>27433</v>
+        <v>27412</v>
       </c>
       <c r="E117" t="n">
-        <v>631.7921481420001</v>
+        <v>612.790602655</v>
       </c>
     </row>
     <row r="118">
@@ -4280,10 +4245,10 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>6982</v>
+        <v>6846</v>
       </c>
       <c r="E118" t="n">
-        <v>1359.329418504</v>
+        <v>1141.315804849</v>
       </c>
     </row>
     <row r="119">
@@ -4301,10 +4266,10 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>12705</v>
+        <v>12683</v>
       </c>
       <c r="E119" t="n">
-        <v>737.3208185750001</v>
+        <v>710.944413782</v>
       </c>
     </row>
     <row r="120">
@@ -4322,10 +4287,10 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>5027</v>
+        <v>4861</v>
       </c>
       <c r="E120" t="n">
-        <v>1617.837079769</v>
+        <v>1263.145237605</v>
       </c>
     </row>
     <row r="121">
@@ -4343,10 +4308,10 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>8378</v>
+        <v>8360</v>
       </c>
       <c r="E121" t="n">
-        <v>777.499283838</v>
+        <v>732.12368421</v>
       </c>
     </row>
     <row r="122">
@@ -4364,10 +4329,10 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>9660</v>
+        <v>9597</v>
       </c>
       <c r="E122" t="n">
-        <v>813.9544513450001</v>
+        <v>730.328852766</v>
       </c>
     </row>
     <row r="123">
@@ -4385,10 +4350,10 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>35979</v>
+        <v>35943</v>
       </c>
       <c r="E123" t="n">
-        <v>644.1193473970001</v>
+        <v>623.66672231</v>
       </c>
     </row>
     <row r="124">
@@ -4406,10 +4371,10 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>9045</v>
+        <v>8993</v>
       </c>
       <c r="E124" t="n">
-        <v>812.2472084020001</v>
+        <v>726.034916045</v>
       </c>
     </row>
     <row r="125">
@@ -4427,10 +4392,10 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>37414</v>
+        <v>37381</v>
       </c>
       <c r="E125" t="n">
-        <v>648.7367830220001</v>
+        <v>626.638827211</v>
       </c>
     </row>
     <row r="126">
@@ -4448,10 +4413,10 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>9412</v>
+        <v>9347</v>
       </c>
       <c r="E126" t="n">
-        <v>792.5747981300001</v>
+        <v>702.364501979</v>
       </c>
     </row>
     <row r="127">
@@ -4469,10 +4434,10 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>36473</v>
+        <v>36437</v>
       </c>
       <c r="E127" t="n">
-        <v>645.7305129820001</v>
+        <v>626.42591322</v>
       </c>
     </row>
     <row r="128">
@@ -4490,10 +4455,10 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>7457</v>
+        <v>7351</v>
       </c>
       <c r="E128" t="n">
-        <v>1276.978141343</v>
+        <v>1104.593660726</v>
       </c>
     </row>
     <row r="129">
@@ -4511,10 +4476,10 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>16357</v>
+        <v>16332</v>
       </c>
       <c r="E129" t="n">
-        <v>627.9165494890001</v>
+        <v>608.8120867</v>
       </c>
     </row>
     <row r="130">
@@ -4532,10 +4497,10 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>6480</v>
+        <v>6334</v>
       </c>
       <c r="E130" t="n">
-        <v>1434.078703703</v>
+        <v>1191.592358699</v>
       </c>
     </row>
     <row r="131">
@@ -4553,10 +4518,10 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>15637</v>
+        <v>15614</v>
       </c>
       <c r="E131" t="n">
-        <v>634.67078084</v>
+        <v>614.547137184</v>
       </c>
     </row>
     <row r="132">
@@ -4574,10 +4539,10 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>12144</v>
+        <v>11912</v>
       </c>
       <c r="E132" t="n">
-        <v>1445.9571805</v>
+        <v>1250.803475486</v>
       </c>
     </row>
     <row r="133">
@@ -4595,10 +4560,10 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>18065</v>
+        <v>18030</v>
       </c>
       <c r="E133" t="n">
-        <v>780.441406033</v>
+        <v>742.442484747</v>
       </c>
     </row>
     <row r="134">
@@ -4616,10 +4581,10 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>9513</v>
+        <v>9286</v>
       </c>
       <c r="E134" t="n">
-        <v>1580.651949963</v>
+        <v>1335.318867111</v>
       </c>
     </row>
     <row r="135">
@@ -4637,10 +4602,10 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>13203</v>
+        <v>13187</v>
       </c>
       <c r="E135" t="n">
-        <v>750.866545482</v>
+        <v>738.144991279</v>
       </c>
     </row>
     <row r="136">
@@ -4658,10 +4623,10 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>6762</v>
+        <v>6639</v>
       </c>
       <c r="E136" t="n">
-        <v>1181.540816326</v>
+        <v>958.560174725</v>
       </c>
     </row>
     <row r="137">
@@ -4679,10 +4644,10 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>19562</v>
+        <v>19531</v>
       </c>
       <c r="E137" t="n">
-        <v>641.65673244</v>
+        <v>620.756233679</v>
       </c>
     </row>
     <row r="138">
@@ -4700,10 +4665,10 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>6235</v>
+        <v>6137</v>
       </c>
       <c r="E138" t="n">
-        <v>1152.517882919</v>
+        <v>964.102004236</v>
       </c>
     </row>
     <row r="139">
@@ -4721,10 +4686,10 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>18702</v>
+        <v>18680</v>
       </c>
       <c r="E139" t="n">
-        <v>629.153352582</v>
+        <v>612.9326017130001</v>
       </c>
     </row>
     <row r="140">
@@ -4742,10 +4707,10 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>6523</v>
+        <v>6430</v>
       </c>
       <c r="E140" t="n">
-        <v>1122.630844703</v>
+        <v>917.874961119</v>
       </c>
     </row>
     <row r="141">
@@ -4763,10 +4728,10 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>19418</v>
+        <v>19382</v>
       </c>
       <c r="E141" t="n">
-        <v>645.322896281</v>
+        <v>618.129088845</v>
       </c>
     </row>
     <row r="142">
@@ -4784,10 +4749,10 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>9117</v>
+        <v>8869</v>
       </c>
       <c r="E142" t="n">
-        <v>1636.816496654</v>
+        <v>1340.039576051</v>
       </c>
     </row>
     <row r="143">
@@ -4805,10 +4770,10 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>14333</v>
+        <v>14307</v>
       </c>
       <c r="E143" t="n">
-        <v>666.48168562</v>
+        <v>643.7053889699999</v>
       </c>
     </row>
     <row r="144">
@@ -4826,10 +4791,10 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>7693</v>
+        <v>7455</v>
       </c>
       <c r="E144" t="n">
-        <v>1707.089431951</v>
+        <v>1379.367672702</v>
       </c>
     </row>
     <row r="145">
@@ -4847,10 +4812,10 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>12763</v>
+        <v>12737</v>
       </c>
       <c r="E145" t="n">
-        <v>701.0669121670001</v>
+        <v>663.055507576</v>
       </c>
     </row>
     <row r="146">
@@ -4868,10 +4833,10 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>18352</v>
+        <v>17912</v>
       </c>
       <c r="E146" t="n">
-        <v>1669.988448125</v>
+        <v>1406.567217507</v>
       </c>
     </row>
     <row r="147">
@@ -4889,10 +4854,10 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>22283</v>
+        <v>22236</v>
       </c>
       <c r="E147" t="n">
-        <v>806.3086657990001</v>
+        <v>773.257150566</v>
       </c>
     </row>
     <row r="148">
@@ -4910,10 +4875,10 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>14602</v>
+        <v>14289</v>
       </c>
       <c r="E148" t="n">
-        <v>1575.208738528</v>
+        <v>1351.199734061</v>
       </c>
     </row>
     <row r="149">
@@ -4931,10 +4896,10 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>18169</v>
+        <v>18126</v>
       </c>
       <c r="E149" t="n">
-        <v>791.3471847650001</v>
+        <v>756.110449078</v>
       </c>
     </row>
     <row r="150">
@@ -4952,10 +4917,10 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>7318</v>
+        <v>7127</v>
       </c>
       <c r="E150" t="n">
-        <v>1460.96365127</v>
+        <v>1181.158832608</v>
       </c>
     </row>
     <row r="151">
@@ -4973,10 +4938,10 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>14327</v>
+        <v>14302</v>
       </c>
       <c r="E151" t="n">
-        <v>653.50687513</v>
+        <v>634.414976926</v>
       </c>
     </row>
     <row r="152">
@@ -4994,10 +4959,10 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>6690</v>
+        <v>6525</v>
       </c>
       <c r="E152" t="n">
-        <v>1526.443796711</v>
+        <v>1264.771954022</v>
       </c>
     </row>
     <row r="153">
@@ -5015,10 +4980,10 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>13804</v>
+        <v>13785</v>
       </c>
       <c r="E153" t="n">
-        <v>655.486453201</v>
+        <v>629.585273848</v>
       </c>
     </row>
     <row r="154">
@@ -5036,10 +5001,10 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>6557</v>
+        <v>6375</v>
       </c>
       <c r="E154" t="n">
-        <v>1498.486655482</v>
+        <v>1190.755764705</v>
       </c>
     </row>
     <row r="155">
@@ -5057,10 +5022,10 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>14174</v>
+        <v>14151</v>
       </c>
       <c r="E155" t="n">
-        <v>666.279525892</v>
+        <v>638.352978588</v>
       </c>
     </row>
     <row r="156">
@@ -5078,10 +5043,10 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>12208</v>
+        <v>11947</v>
       </c>
       <c r="E156" t="n">
-        <v>1596.608289646</v>
+        <v>1384.704109818</v>
       </c>
     </row>
     <row r="157">
@@ -5099,10 +5064,10 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>17548</v>
+        <v>17503</v>
       </c>
       <c r="E157" t="n">
-        <v>693.200364713</v>
+        <v>664.424384391</v>
       </c>
     </row>
     <row r="158">
@@ -5120,10 +5085,10 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>9698</v>
+        <v>9427</v>
       </c>
       <c r="E158" t="n">
-        <v>1667.961022891</v>
+        <v>1378.473109154</v>
       </c>
     </row>
     <row r="159">
@@ -5141,10 +5106,10 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>15486</v>
+        <v>15445</v>
       </c>
       <c r="E159" t="n">
-        <v>700.6740281540001</v>
+        <v>666.572612495</v>
       </c>
     </row>
     <row r="160">
@@ -5162,10 +5127,10 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>23276</v>
+        <v>22761</v>
       </c>
       <c r="E160" t="n">
-        <v>1734.162613851</v>
+        <v>1475.667062079</v>
       </c>
     </row>
     <row r="161">
@@ -5183,10 +5148,10 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>25051</v>
+        <v>24998</v>
       </c>
       <c r="E161" t="n">
-        <v>846.897129855</v>
+        <v>806.851868149</v>
       </c>
     </row>
     <row r="162">
@@ -5204,10 +5169,10 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>18939</v>
+        <v>18556</v>
       </c>
       <c r="E162" t="n">
-        <v>1650.023021278</v>
+        <v>1414.317525328</v>
       </c>
     </row>
     <row r="163">
@@ -5225,10 +5190,10 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>21922</v>
+        <v>21878</v>
       </c>
       <c r="E163" t="n">
-        <v>811.8003831760001</v>
+        <v>785.392906115</v>
       </c>
     </row>
     <row r="164">
@@ -5246,10 +5211,10 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>9051</v>
+        <v>8865</v>
       </c>
       <c r="E164" t="n">
-        <v>1470.845210473</v>
+        <v>1264.136717428</v>
       </c>
     </row>
     <row r="165">
@@ -5267,10 +5232,10 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>16858</v>
+        <v>16816</v>
       </c>
       <c r="E165" t="n">
-        <v>681.598884802</v>
+        <v>649.713962892</v>
       </c>
     </row>
     <row r="166">
@@ -5288,10 +5253,10 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>8229</v>
+        <v>8004</v>
       </c>
       <c r="E166" t="n">
-        <v>1545.66532993</v>
+        <v>1290.390304847</v>
       </c>
     </row>
     <row r="167">
@@ -5309,10 +5274,10 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>15795</v>
+        <v>15762</v>
       </c>
       <c r="E167" t="n">
-        <v>666.2590060140001</v>
+        <v>640.734234234</v>
       </c>
     </row>
     <row r="168">
@@ -5330,10 +5295,10 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>8742</v>
+        <v>8525</v>
       </c>
       <c r="E168" t="n">
-        <v>1513.448524365</v>
+        <v>1226.645043988</v>
       </c>
     </row>
     <row r="169">
@@ -5351,10 +5316,10 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>16847</v>
+        <v>16819</v>
       </c>
       <c r="E169" t="n">
-        <v>652.898795037</v>
+        <v>634.185088293</v>
       </c>
     </row>
     <row r="170">
@@ -5372,10 +5337,10 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>15306</v>
+        <v>15013</v>
       </c>
       <c r="E170" t="n">
-        <v>1525.831569319</v>
+        <v>1301.879704256</v>
       </c>
     </row>
     <row r="171">
@@ -5393,10 +5358,10 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>21267</v>
+        <v>21245</v>
       </c>
       <c r="E171" t="n">
-        <v>684.531433676</v>
+        <v>666.482466462</v>
       </c>
     </row>
     <row r="172">
@@ -5414,10 +5379,10 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>11953</v>
+        <v>11687</v>
       </c>
       <c r="E172" t="n">
-        <v>1635.562034635</v>
+        <v>1393.133823906</v>
       </c>
     </row>
     <row r="173">
@@ -5435,10 +5400,10 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>18356</v>
+        <v>18330</v>
       </c>
       <c r="E173" t="n">
-        <v>675.930649378</v>
+        <v>653.168303327</v>
       </c>
     </row>
     <row r="174">
@@ -5456,10 +5421,10 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>26568</v>
+        <v>25997</v>
       </c>
       <c r="E174" t="n">
-        <v>1732.36525143</v>
+        <v>1490.693387698</v>
       </c>
     </row>
     <row r="175">
@@ -5477,10 +5442,10 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>26091</v>
+        <v>26047</v>
       </c>
       <c r="E175" t="n">
-        <v>858.367981296</v>
+        <v>822.433792759</v>
       </c>
     </row>
     <row r="176">
@@ -5498,10 +5463,10 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>21313</v>
+        <v>20860</v>
       </c>
       <c r="E176" t="n">
-        <v>1697.660160465</v>
+        <v>1457.619031639</v>
       </c>
     </row>
     <row r="177">
@@ -5519,10 +5484,10 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>23143</v>
+        <v>23100</v>
       </c>
       <c r="E177" t="n">
-        <v>826.250097221</v>
+        <v>801.105757575</v>
       </c>
     </row>
     <row r="178">
@@ -5540,10 +5505,10 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>11147</v>
+        <v>10928</v>
       </c>
       <c r="E178" t="n">
-        <v>1434.310935677</v>
+        <v>1197.462756222</v>
       </c>
     </row>
     <row r="179">
@@ -5561,10 +5526,10 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>20439</v>
+        <v>20418</v>
       </c>
       <c r="E179" t="n">
-        <v>661.145114731</v>
+        <v>639.456557939</v>
       </c>
     </row>
     <row r="180">
@@ -5582,10 +5547,10 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>10113</v>
+        <v>9866</v>
       </c>
       <c r="E180" t="n">
-        <v>1561.39800257</v>
+        <v>1236.379890533</v>
       </c>
     </row>
     <row r="181">
@@ -5603,10 +5568,10 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>19250</v>
+        <v>19227</v>
       </c>
       <c r="E181" t="n">
-        <v>637.506285714</v>
+        <v>618.711291413</v>
       </c>
     </row>
     <row r="182">
@@ -5624,10 +5589,10 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>10043</v>
+        <v>9879</v>
       </c>
       <c r="E182" t="n">
-        <v>1377.663347605</v>
+        <v>1192.176536086</v>
       </c>
     </row>
     <row r="183">
@@ -5645,10 +5610,10 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>19992</v>
+        <v>19958</v>
       </c>
       <c r="E183" t="n">
-        <v>657.299419767</v>
+        <v>634.3977853489999</v>
       </c>
     </row>
     <row r="184">
@@ -5666,10 +5631,10 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>16079</v>
+        <v>15800</v>
       </c>
       <c r="E184" t="n">
-        <v>1487.909322719</v>
+        <v>1253.71556962</v>
       </c>
     </row>
     <row r="185">
@@ -5687,10 +5652,10 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>22251</v>
+        <v>22224</v>
       </c>
       <c r="E185" t="n">
-        <v>685.103770617</v>
+        <v>663.087607991</v>
       </c>
     </row>
     <row r="186">
@@ -5708,10 +5673,10 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>12522</v>
+        <v>12250</v>
       </c>
       <c r="E186" t="n">
-        <v>1654.172735984</v>
+        <v>1390.817714285</v>
       </c>
     </row>
     <row r="187">
@@ -5729,10 +5694,10 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>18195</v>
+        <v>18179</v>
       </c>
       <c r="E187" t="n">
-        <v>675.253091508</v>
+        <v>660.281753671</v>
       </c>
     </row>
     <row r="188">
@@ -5750,10 +5715,10 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>27792</v>
+        <v>27173</v>
       </c>
       <c r="E188" t="n">
-        <v>1741.629785549</v>
+        <v>1510.237478379</v>
       </c>
     </row>
     <row r="189">
@@ -5771,10 +5736,10 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>25623</v>
+        <v>25584</v>
       </c>
       <c r="E189" t="n">
-        <v>852.8816297850001</v>
+        <v>835.193792995</v>
       </c>
     </row>
     <row r="190">
@@ -5792,10 +5757,10 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>22349</v>
+        <v>21894</v>
       </c>
       <c r="E190" t="n">
-        <v>1673.643026533</v>
+        <v>1466.149995432</v>
       </c>
     </row>
     <row r="191">
@@ -5813,10 +5778,10 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>23600</v>
+        <v>23561</v>
       </c>
       <c r="E191" t="n">
-        <v>852.4097881350001</v>
+        <v>827.46670345</v>
       </c>
     </row>
     <row r="192">
@@ -5834,10 +5799,10 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>11695</v>
+        <v>11445</v>
       </c>
       <c r="E192" t="n">
-        <v>1505.981274048</v>
+        <v>1230.901791175</v>
       </c>
     </row>
     <row r="193">
@@ -5855,10 +5820,10 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>19791</v>
+        <v>19776</v>
       </c>
       <c r="E193" t="n">
-        <v>662.8958617550001</v>
+        <v>650.843446601</v>
       </c>
     </row>
     <row r="194">
@@ -5876,10 +5841,10 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>10262</v>
+        <v>10059</v>
       </c>
       <c r="E194" t="n">
-        <v>1452.286298967</v>
+        <v>1240.023759817</v>
       </c>
     </row>
     <row r="195">
@@ -5897,10 +5862,10 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>18224</v>
+        <v>18199</v>
       </c>
       <c r="E195" t="n">
-        <v>654.879609306</v>
+        <v>630.905873949</v>
       </c>
     </row>
     <row r="196">
@@ -5918,10 +5883,10 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>10405</v>
+        <v>10236</v>
       </c>
       <c r="E196" t="n">
-        <v>1381.052378664</v>
+        <v>1184.761723329</v>
       </c>
     </row>
     <row r="197">
@@ -5939,10 +5904,10 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>19671</v>
+        <v>19649</v>
       </c>
       <c r="E197" t="n">
-        <v>657.3402470640001</v>
+        <v>635.366939793</v>
       </c>
     </row>
     <row r="198">
@@ -5960,10 +5925,10 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>17558</v>
+        <v>17285</v>
       </c>
       <c r="E198" t="n">
-        <v>1459.573755553</v>
+        <v>1287.19427249</v>
       </c>
     </row>
     <row r="199">
@@ -5981,10 +5946,10 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>23487</v>
+        <v>23464</v>
       </c>
       <c r="E199" t="n">
-        <v>710.060842168</v>
+        <v>690.1274292529999</v>
       </c>
     </row>
     <row r="200">
@@ -6002,10 +5967,10 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>13079</v>
+        <v>12816</v>
       </c>
       <c r="E200" t="n">
-        <v>1601.82200474</v>
+        <v>1338.270677278</v>
       </c>
     </row>
     <row r="201">
@@ -6023,10 +5988,10 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>18692</v>
+        <v>18668</v>
       </c>
       <c r="E201" t="n">
-        <v>701.52225551</v>
+        <v>670.105528176</v>
       </c>
     </row>
     <row r="202">
@@ -6044,10 +6009,10 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>28625</v>
+        <v>28019</v>
       </c>
       <c r="E202" t="n">
-        <v>1724.519720524</v>
+        <v>1490.712159605</v>
       </c>
     </row>
     <row r="203">
@@ -6065,10 +6030,10 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>25688</v>
+        <v>25641</v>
       </c>
       <c r="E203" t="n">
-        <v>863.2382824660001</v>
+        <v>835.1962481960001</v>
       </c>
     </row>
     <row r="204">
@@ -6086,10 +6051,10 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>23388</v>
+        <v>22893</v>
       </c>
       <c r="E204" t="n">
-        <v>1721.413417136</v>
+        <v>1481.65286332</v>
       </c>
     </row>
     <row r="205">
@@ -6107,10 +6072,10 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>23180</v>
+        <v>23147</v>
       </c>
       <c r="E205" t="n">
-        <v>880.5843399480001</v>
+        <v>843.712446537</v>
       </c>
     </row>
     <row r="206">
@@ -6128,10 +6093,10 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>12685</v>
+        <v>12462</v>
       </c>
       <c r="E206" t="n">
-        <v>1432.770752857</v>
+        <v>1241.251725244</v>
       </c>
     </row>
     <row r="207">
@@ -6149,10 +6114,10 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>19794</v>
+        <v>19777</v>
       </c>
       <c r="E207" t="n">
-        <v>686.357279983</v>
+        <v>670.172068564</v>
       </c>
     </row>
     <row r="208">
@@ -6170,10 +6135,10 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>10887</v>
+        <v>10688</v>
       </c>
       <c r="E208" t="n">
-        <v>1441.203729218</v>
+        <v>1236.803424401</v>
       </c>
     </row>
     <row r="209">
@@ -6191,10 +6156,10 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>18025</v>
+        <v>17999</v>
       </c>
       <c r="E209" t="n">
-        <v>692.8051595000001</v>
+        <v>656.040391132</v>
       </c>
     </row>
     <row r="210">
@@ -6212,10 +6177,10 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>11242</v>
+        <v>11044</v>
       </c>
       <c r="E210" t="n">
-        <v>1425.504625511</v>
+        <v>1204.123596522</v>
       </c>
     </row>
     <row r="211">
@@ -6233,10 +6198,10 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>19625</v>
+        <v>19603</v>
       </c>
       <c r="E211" t="n">
-        <v>669.062726114</v>
+        <v>654.97587104</v>
       </c>
     </row>
     <row r="212">
@@ -6254,10 +6219,10 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>20373</v>
+        <v>20118</v>
       </c>
       <c r="E212" t="n">
-        <v>1353.669268149</v>
+        <v>1203.187792027</v>
       </c>
     </row>
     <row r="213">
@@ -6275,10 +6240,10 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>29640</v>
+        <v>29608</v>
       </c>
       <c r="E213" t="n">
-        <v>722.5590755730001</v>
+        <v>698.0846055120001</v>
       </c>
     </row>
     <row r="214">
@@ -6296,10 +6261,10 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>14275</v>
+        <v>14044</v>
       </c>
       <c r="E214" t="n">
-        <v>1484.394676007</v>
+        <v>1277.340999715</v>
       </c>
     </row>
     <row r="215">
@@ -6317,10 +6282,10 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>23695</v>
+        <v>23665</v>
       </c>
       <c r="E215" t="n">
-        <v>725.7323485960001</v>
+        <v>685.327572364</v>
       </c>
     </row>
     <row r="216">
@@ -6338,10 +6303,10 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>29400</v>
+        <v>28879</v>
       </c>
       <c r="E216" t="n">
-        <v>1648.318537414</v>
+        <v>1441.955954153</v>
       </c>
     </row>
     <row r="217">
@@ -6359,10 +6324,10 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>25492</v>
+        <v>25462</v>
       </c>
       <c r="E217" t="n">
-        <v>863.6797034360001</v>
+        <v>837.120571832</v>
       </c>
     </row>
     <row r="218">
@@ -6380,10 +6345,10 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>24349</v>
+        <v>23968</v>
       </c>
       <c r="E218" t="n">
-        <v>1636.405478664</v>
+        <v>1436.808202603</v>
       </c>
     </row>
     <row r="219">
@@ -6401,10 +6366,10 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>24312</v>
+        <v>24281</v>
       </c>
       <c r="E219" t="n">
-        <v>858.3151941420001</v>
+        <v>832.330258226</v>
       </c>
     </row>
     <row r="220">
@@ -6422,10 +6387,10 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>15323</v>
+        <v>15121</v>
       </c>
       <c r="E220" t="n">
-        <v>1340.338641258</v>
+        <v>1153.160108458</v>
       </c>
     </row>
     <row r="221">
@@ -6443,10 +6408,10 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>26946</v>
+        <v>26920</v>
       </c>
       <c r="E221" t="n">
-        <v>686.341126697</v>
+        <v>670.110401188</v>
       </c>
     </row>
     <row r="222">
@@ -6464,10 +6429,10 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>12969</v>
+        <v>12741</v>
       </c>
       <c r="E222" t="n">
-        <v>1373.810239802</v>
+        <v>1157.530335138</v>
       </c>
     </row>
     <row r="223">
@@ -6485,10 +6450,10 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>25987</v>
+        <v>25973</v>
       </c>
       <c r="E223" t="n">
-        <v>669.1890945470001</v>
+        <v>659.7151272470001</v>
       </c>
     </row>
     <row r="224">
@@ -6506,10 +6471,10 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>13402</v>
+        <v>13234</v>
       </c>
       <c r="E224" t="n">
-        <v>1296.581554991</v>
+        <v>1155.32779205</v>
       </c>
     </row>
     <row r="225">
@@ -6527,10 +6492,10 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>26437</v>
+        <v>26415</v>
       </c>
       <c r="E225" t="n">
-        <v>692.4882172710001</v>
+        <v>672.162634866</v>
       </c>
     </row>
     <row r="226">
@@ -6548,10 +6513,10 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>23078</v>
+        <v>22860</v>
       </c>
       <c r="E226" t="n">
-        <v>1298.137013606</v>
+        <v>1130.809055118</v>
       </c>
     </row>
     <row r="227">
@@ -6569,10 +6534,10 @@
         </is>
       </c>
       <c r="D227" t="n">
-        <v>36657</v>
+        <v>36620</v>
       </c>
       <c r="E227" t="n">
-        <v>743.647243364</v>
+        <v>719.684625887</v>
       </c>
     </row>
     <row r="228">
@@ -6590,10 +6555,10 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>16753</v>
+        <v>16557</v>
       </c>
       <c r="E228" t="n">
-        <v>1298.243598161</v>
+        <v>1133.731110708</v>
       </c>
     </row>
     <row r="229">
@@ -6611,10 +6576,10 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>35373</v>
+        <v>35336</v>
       </c>
       <c r="E229" t="n">
-        <v>721.808695898</v>
+        <v>695.426477247</v>
       </c>
     </row>
     <row r="230">
@@ -6632,10 +6597,10 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>29092</v>
+        <v>28652</v>
       </c>
       <c r="E230" t="n">
-        <v>1604.182180668</v>
+        <v>1396.73296803</v>
       </c>
     </row>
     <row r="231">
@@ -6653,10 +6618,10 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>25728</v>
+        <v>25688</v>
       </c>
       <c r="E231" t="n">
-        <v>873.629392101</v>
+        <v>840.957217377</v>
       </c>
     </row>
     <row r="232">
@@ -6674,10 +6639,10 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>22982</v>
+        <v>22640</v>
       </c>
       <c r="E232" t="n">
-        <v>1590.48459664</v>
+        <v>1381.474867491</v>
       </c>
     </row>
     <row r="233">
@@ -6695,10 +6660,10 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>23722</v>
+        <v>23674</v>
       </c>
       <c r="E233" t="n">
-        <v>860.682952533</v>
+        <v>812.417631156</v>
       </c>
     </row>
     <row r="234">
@@ -6716,10 +6681,10 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>19700</v>
+        <v>19541</v>
       </c>
       <c r="E234" t="n">
-        <v>1190.507258883</v>
+        <v>1067.575968476</v>
       </c>
     </row>
     <row r="235">
@@ -6737,10 +6702,10 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>40707</v>
+        <v>40667</v>
       </c>
       <c r="E235" t="n">
-        <v>730.2810327460001</v>
+        <v>712.015958885</v>
       </c>
     </row>
     <row r="236">
@@ -6758,10 +6723,10 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>17716</v>
+        <v>17551</v>
       </c>
       <c r="E236" t="n">
-        <v>1181.674587943</v>
+        <v>1058.600877442</v>
       </c>
     </row>
     <row r="237">
@@ -6779,10 +6744,10 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>42702</v>
+        <v>42662</v>
       </c>
       <c r="E237" t="n">
-        <v>723.78488127</v>
+        <v>709.567554263</v>
       </c>
     </row>
     <row r="238">
@@ -6800,10 +6765,10 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>18941</v>
+        <v>18763</v>
       </c>
       <c r="E238" t="n">
-        <v>1141.11768122</v>
+        <v>1017.809358844</v>
       </c>
     </row>
     <row r="239">
@@ -6821,10 +6786,10 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>43292</v>
+        <v>43244</v>
       </c>
       <c r="E239" t="n">
-        <v>729.033031506</v>
+        <v>708.45194709</v>
       </c>
     </row>
     <row r="240">
@@ -6842,10 +6807,10 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>25178</v>
+        <v>24925</v>
       </c>
       <c r="E240" t="n">
-        <v>1234.266581936</v>
+        <v>1077.024593781</v>
       </c>
     </row>
     <row r="241">
@@ -6863,10 +6828,10 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>40162</v>
+        <v>40072</v>
       </c>
       <c r="E241" t="n">
-        <v>776.8291668740001</v>
+        <v>734.245458175</v>
       </c>
     </row>
     <row r="242">
@@ -6884,10 +6849,10 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>19506</v>
+        <v>19321</v>
       </c>
       <c r="E242" t="n">
-        <v>1226.844765713</v>
+        <v>1064.340872625</v>
       </c>
     </row>
     <row r="243">
@@ -6905,10 +6870,10 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>45870</v>
+        <v>45817</v>
       </c>
       <c r="E243" t="n">
-        <v>729.5253106600001</v>
+        <v>708.146583145</v>
       </c>
     </row>
     <row r="244">
@@ -6926,10 +6891,10 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>26885</v>
+        <v>26538</v>
       </c>
       <c r="E244" t="n">
-        <v>1516.772066207</v>
+        <v>1282.56665913</v>
       </c>
     </row>
     <row r="245">
@@ -6947,10 +6912,10 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>25830</v>
+        <v>25783</v>
       </c>
       <c r="E245" t="n">
-        <v>857.603716608</v>
+        <v>818.503122212</v>
       </c>
     </row>
     <row r="246">
@@ -6968,10 +6933,10 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>19737</v>
+        <v>19509</v>
       </c>
       <c r="E246" t="n">
-        <v>1497.703045042</v>
+        <v>1319.810036393</v>
       </c>
     </row>
     <row r="247">
@@ -6989,10 +6954,10 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>22387</v>
+        <v>22353</v>
       </c>
       <c r="E247" t="n">
-        <v>824.4203332290001</v>
+        <v>796.226725719</v>
       </c>
     </row>
     <row r="248">
@@ -7010,10 +6975,10 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>25217</v>
+        <v>25053</v>
       </c>
       <c r="E248" t="n">
-        <v>1119.487012729</v>
+        <v>1022.425537859</v>
       </c>
     </row>
     <row r="249">
@@ -7031,10 +6996,10 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>51816</v>
+        <v>51759</v>
       </c>
       <c r="E249" t="n">
-        <v>758.858344912</v>
+        <v>739.28226975</v>
       </c>
     </row>
     <row r="250">
@@ -7052,10 +7017,10 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>22102</v>
+        <v>21928</v>
       </c>
       <c r="E250" t="n">
-        <v>1137.221744638</v>
+        <v>1020.960370302</v>
       </c>
     </row>
     <row r="251">
@@ -7073,10 +7038,10 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>53572</v>
+        <v>53506</v>
       </c>
       <c r="E251" t="n">
-        <v>773.943235272</v>
+        <v>735.4965798219999</v>
       </c>
     </row>
     <row r="252">
@@ -7094,10 +7059,10 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>24405</v>
+        <v>24207</v>
       </c>
       <c r="E252" t="n">
-        <v>1133.856381888</v>
+        <v>1007.818275705</v>
       </c>
     </row>
     <row r="253">
@@ -7115,10 +7080,10 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>55111</v>
+        <v>55057</v>
       </c>
       <c r="E253" t="n">
-        <v>758.616083903</v>
+        <v>739.1827560519999</v>
       </c>
     </row>
     <row r="254">
@@ -7136,10 +7101,10 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>22361</v>
+        <v>22158</v>
       </c>
       <c r="E254" t="n">
-        <v>1193.595232771</v>
+        <v>1046.782787255</v>
       </c>
     </row>
     <row r="255">
@@ -7157,10 +7122,10 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>32928</v>
+        <v>32874</v>
       </c>
       <c r="E255" t="n">
-        <v>784.6950012140001</v>
+        <v>749.5016426350001</v>
       </c>
     </row>
     <row r="256">
@@ -7178,10 +7143,10 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>16846</v>
+        <v>16706</v>
       </c>
       <c r="E256" t="n">
-        <v>1350.488958803</v>
+        <v>1081.586436011</v>
       </c>
     </row>
     <row r="257">
@@ -7199,10 +7164,10 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>35204</v>
+        <v>35150</v>
       </c>
       <c r="E257" t="n">
-        <v>734.036245881</v>
+        <v>696.250184921</v>
       </c>
     </row>
     <row r="258">
@@ -7220,10 +7185,10 @@
         </is>
       </c>
       <c r="D258" t="n">
-        <v>23857</v>
+        <v>23584</v>
       </c>
       <c r="E258" t="n">
-        <v>1378.485056796</v>
+        <v>1207.100576662</v>
       </c>
     </row>
     <row r="259">
@@ -7241,10 +7206,10 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>23772</v>
+        <v>23734</v>
       </c>
       <c r="E259" t="n">
-        <v>840.5506478200001</v>
+        <v>800.852110895</v>
       </c>
     </row>
     <row r="260">
@@ -7262,10 +7227,10 @@
         </is>
       </c>
       <c r="D260" t="n">
-        <v>16667</v>
+        <v>16464</v>
       </c>
       <c r="E260" t="n">
-        <v>1536.10745785</v>
+        <v>1263.717504859</v>
       </c>
     </row>
     <row r="261">
@@ -7283,10 +7248,10 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>20439</v>
+        <v>20402</v>
       </c>
       <c r="E261" t="n">
-        <v>810.8016537010001</v>
+        <v>766.776051367</v>
       </c>
     </row>
     <row r="262">
@@ -7304,10 +7269,10 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>21816</v>
+        <v>21646</v>
       </c>
       <c r="E262" t="n">
-        <v>1152.174138247</v>
+        <v>1019.937540423</v>
       </c>
     </row>
     <row r="263">
@@ -7325,10 +7290,10 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>39233</v>
+        <v>39183</v>
       </c>
       <c r="E263" t="n">
-        <v>760.9667116960001</v>
+        <v>737.776280529</v>
       </c>
     </row>
     <row r="264">
@@ -7346,10 +7311,10 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>18594</v>
+        <v>18450</v>
       </c>
       <c r="E264" t="n">
-        <v>1171.432182424</v>
+        <v>1020.986775067</v>
       </c>
     </row>
     <row r="265">
@@ -7367,10 +7332,10 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>38638</v>
+        <v>38590</v>
       </c>
       <c r="E265" t="n">
-        <v>754.2538951290001</v>
+        <v>718.2330396470001</v>
       </c>
     </row>
     <row r="266">
@@ -7388,10 +7353,10 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>20089</v>
+        <v>19944</v>
       </c>
       <c r="E266" t="n">
-        <v>1165.17387625</v>
+        <v>1026.68506819</v>
       </c>
     </row>
     <row r="267">
@@ -7409,10 +7374,10 @@
         </is>
       </c>
       <c r="D267" t="n">
-        <v>40014</v>
+        <v>39973</v>
       </c>
       <c r="E267" t="n">
-        <v>749.7951466980001</v>
+        <v>721.552723088</v>
       </c>
     </row>
     <row r="268">
@@ -7430,10 +7395,10 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>16703</v>
+        <v>16565</v>
       </c>
       <c r="E268" t="n">
-        <v>1192.300065856</v>
+        <v>1041.010443706</v>
       </c>
     </row>
     <row r="269">
@@ -7451,10 +7416,10 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>23158</v>
+        <v>23125</v>
       </c>
       <c r="E269" t="n">
-        <v>769.6333448480001</v>
+        <v>736.837794594</v>
       </c>
     </row>
     <row r="270">
@@ -7472,10 +7437,10 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>12810</v>
+        <v>12717</v>
       </c>
       <c r="E270" t="n">
-        <v>1237.035206869</v>
+        <v>1065.675159235</v>
       </c>
     </row>
     <row r="271">
@@ -7493,10 +7458,10 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>24554</v>
+        <v>24533</v>
       </c>
       <c r="E271" t="n">
-        <v>726.373340392</v>
+        <v>701.9307871029999</v>
       </c>
     </row>
     <row r="272">
@@ -7514,10 +7479,10 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>18272</v>
+        <v>18067</v>
       </c>
       <c r="E272" t="n">
-        <v>1336.20479422</v>
+        <v>1170.410970277</v>
       </c>
     </row>
     <row r="273">
@@ -7535,10 +7500,10 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>18995</v>
+        <v>18959</v>
       </c>
       <c r="E273" t="n">
-        <v>812.0878125820001</v>
+        <v>775.0876101060001</v>
       </c>
     </row>
     <row r="274">
@@ -7556,10 +7521,10 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>12364</v>
+        <v>12241</v>
       </c>
       <c r="E274" t="n">
-        <v>1456.224118408</v>
+        <v>1207.414426925</v>
       </c>
     </row>
     <row r="275">
@@ -7577,10 +7542,10 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>15443</v>
+        <v>15423</v>
       </c>
       <c r="E275" t="n">
-        <v>767.0047270600001</v>
+        <v>738.991311677</v>
       </c>
     </row>
     <row r="276">
@@ -7598,10 +7563,10 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>15922</v>
+        <v>15802</v>
       </c>
       <c r="E276" t="n">
-        <v>1193.625423941</v>
+        <v>1020.184407037</v>
       </c>
     </row>
     <row r="277">
@@ -7619,10 +7584,10 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>26958</v>
+        <v>26922</v>
       </c>
       <c r="E277" t="n">
-        <v>761.4245122040001</v>
+        <v>724.133125325</v>
       </c>
     </row>
     <row r="278">
@@ -7640,10 +7605,10 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>13379</v>
+        <v>13293</v>
       </c>
       <c r="E278" t="n">
-        <v>1133.719784737</v>
+        <v>1013.952982772</v>
       </c>
     </row>
     <row r="279">
@@ -7661,10 +7626,10 @@
         </is>
       </c>
       <c r="D279" t="n">
-        <v>26351</v>
+        <v>26333</v>
       </c>
       <c r="E279" t="n">
-        <v>730.758301392</v>
+        <v>711.683970683</v>
       </c>
     </row>
     <row r="280">
@@ -7682,10 +7647,10 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>15237</v>
+        <v>15109</v>
       </c>
       <c r="E280" t="n">
-        <v>1176.376583316</v>
+        <v>1017.316367727</v>
       </c>
     </row>
     <row r="281">
@@ -7703,10 +7668,10 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>27953</v>
+        <v>27928</v>
       </c>
       <c r="E281" t="n">
-        <v>732.3996708760001</v>
+        <v>711.938556287</v>
       </c>
     </row>
     <row r="282">
@@ -7724,10 +7689,10 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>11906</v>
+        <v>11791</v>
       </c>
       <c r="E282" t="n">
-        <v>1218.41239711</v>
+        <v>1033.589687049</v>
       </c>
     </row>
     <row r="283">
@@ -7745,10 +7710,10 @@
         </is>
       </c>
       <c r="D283" t="n">
-        <v>15876</v>
+        <v>15855</v>
       </c>
       <c r="E283" t="n">
-        <v>753.282753842</v>
+        <v>718.10936613</v>
       </c>
     </row>
     <row r="284">
@@ -7766,10 +7731,10 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>9066</v>
+        <v>8992</v>
       </c>
       <c r="E284" t="n">
-        <v>1191.988528568</v>
+        <v>1032.711076512</v>
       </c>
     </row>
     <row r="285">
@@ -7787,10 +7752,10 @@
         </is>
       </c>
       <c r="D285" t="n">
-        <v>16563</v>
+        <v>16541</v>
       </c>
       <c r="E285" t="n">
-        <v>713.236973978</v>
+        <v>681.450275074</v>
       </c>
     </row>
     <row r="286">
@@ -7808,10 +7773,10 @@
         </is>
       </c>
       <c r="D286" t="n">
-        <v>13843</v>
+        <v>13652</v>
       </c>
       <c r="E286" t="n">
-        <v>1435.907028823</v>
+        <v>1169.879358335</v>
       </c>
     </row>
     <row r="287">
@@ -7829,10 +7794,10 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>13717</v>
+        <v>13702</v>
       </c>
       <c r="E287" t="n">
-        <v>785.304950061</v>
+        <v>759.173478324</v>
       </c>
     </row>
     <row r="288">
@@ -7850,10 +7815,10 @@
         </is>
       </c>
       <c r="D288" t="n">
-        <v>8701</v>
+        <v>8614</v>
       </c>
       <c r="E288" t="n">
-        <v>1331.150787265</v>
+        <v>1152.884026004</v>
       </c>
     </row>
     <row r="289">
@@ -7871,10 +7836,10 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>11317</v>
+        <v>11304</v>
       </c>
       <c r="E289" t="n">
-        <v>723.795617213</v>
+        <v>700.94497523</v>
       </c>
     </row>
     <row r="290">
@@ -7892,10 +7857,10 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>11157</v>
+        <v>11063</v>
       </c>
       <c r="E290" t="n">
-        <v>1137.555704938</v>
+        <v>959.119678206</v>
       </c>
     </row>
     <row r="291">
@@ -7913,10 +7878,10 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>17923</v>
+        <v>17902</v>
       </c>
       <c r="E291" t="n">
-        <v>743.8809351110001</v>
+        <v>706.604457602</v>
       </c>
     </row>
     <row r="292">
@@ -7934,10 +7899,10 @@
         </is>
       </c>
       <c r="D292" t="n">
-        <v>9308</v>
+        <v>9247</v>
       </c>
       <c r="E292" t="n">
-        <v>1132.762140094</v>
+        <v>974.968205904</v>
       </c>
     </row>
     <row r="293">
@@ -7955,10 +7920,10 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>17888</v>
+        <v>17869</v>
       </c>
       <c r="E293" t="n">
-        <v>725.748714221</v>
+        <v>686.598522581</v>
       </c>
     </row>
     <row r="294">
@@ -7976,10 +7941,10 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>11034</v>
+        <v>10946</v>
       </c>
       <c r="E294" t="n">
-        <v>1132.784937466</v>
+        <v>1002.339027955</v>
       </c>
     </row>
     <row r="295">
@@ -7997,10 +7962,10 @@
         </is>
       </c>
       <c r="D295" t="n">
-        <v>19139</v>
+        <v>19115</v>
       </c>
       <c r="E295" t="n">
-        <v>741.729296201</v>
+        <v>700.263824221</v>
       </c>
     </row>
     <row r="296">
@@ -8018,10 +7983,10 @@
         </is>
       </c>
       <c r="D296" t="n">
-        <v>9902</v>
+        <v>9809</v>
       </c>
       <c r="E296" t="n">
-        <v>1250.404160775</v>
+        <v>1018.579365888</v>
       </c>
     </row>
     <row r="297">
@@ -8039,10 +8004,10 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>11995</v>
+        <v>11989</v>
       </c>
       <c r="E297" t="n">
-        <v>736.908128386</v>
+        <v>717.876219868</v>
       </c>
     </row>
     <row r="298">
@@ -8060,10 +8025,10 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>7144</v>
+        <v>7100</v>
       </c>
       <c r="E298" t="n">
-        <v>1120.122200447</v>
+        <v>969.683239436</v>
       </c>
     </row>
     <row r="299">
@@ -8081,10 +8046,10 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>11969</v>
+        <v>11961</v>
       </c>
       <c r="E299" t="n">
-        <v>690.3671985960001</v>
+        <v>662.432321712</v>
       </c>
     </row>
     <row r="300">
@@ -8102,10 +8067,10 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>12601</v>
+        <v>12476</v>
       </c>
       <c r="E300" t="n">
-        <v>1374.149194508</v>
+        <v>1159.07326066</v>
       </c>
     </row>
     <row r="301">
@@ -8123,10 +8088,10 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>11574</v>
+        <v>11558</v>
       </c>
       <c r="E301" t="n">
-        <v>800.5873509590001</v>
+        <v>753.594047413</v>
       </c>
     </row>
     <row r="302">
@@ -8144,10 +8109,10 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>7163</v>
+        <v>7088</v>
       </c>
       <c r="E302" t="n">
-        <v>1294.053888035</v>
+        <v>1045.805869074</v>
       </c>
     </row>
     <row r="303">
@@ -8165,10 +8130,10 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>8758</v>
+        <v>8752</v>
       </c>
       <c r="E303" t="n">
-        <v>697.693080612</v>
+        <v>679.035420475</v>
       </c>
     </row>
     <row r="304">
@@ -8186,10 +8151,10 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>9648</v>
+        <v>9600</v>
       </c>
       <c r="E304" t="n">
-        <v>1020.676202321</v>
+        <v>901.973020833</v>
       </c>
     </row>
     <row r="305">
@@ -8207,10 +8172,10 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>14440</v>
+        <v>14423</v>
       </c>
       <c r="E305" t="n">
-        <v>707.890443213</v>
+        <v>676.572349719</v>
       </c>
     </row>
     <row r="306">
@@ -8228,10 +8193,10 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>8127</v>
+        <v>8079</v>
       </c>
       <c r="E306" t="n">
-        <v>1073.438046019</v>
+        <v>918.16858522</v>
       </c>
     </row>
     <row r="307">
@@ -8249,10 +8214,10 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>13408</v>
+        <v>13399</v>
       </c>
       <c r="E307" t="n">
-        <v>702.569734486</v>
+        <v>669.263452496</v>
       </c>
     </row>
     <row r="308">
@@ -8270,10 +8235,10 @@
         </is>
       </c>
       <c r="D308" t="n">
-        <v>9725</v>
+        <v>9688</v>
       </c>
       <c r="E308" t="n">
-        <v>974.875578406</v>
+        <v>898.4555119729999</v>
       </c>
     </row>
     <row r="309">
@@ -8291,10 +8256,10 @@
         </is>
       </c>
       <c r="D309" t="n">
-        <v>14674</v>
+        <v>14655</v>
       </c>
       <c r="E309" t="n">
-        <v>726.557516696</v>
+        <v>689.82865916</v>
       </c>
     </row>
     <row r="310">
@@ -8312,10 +8277,10 @@
         </is>
       </c>
       <c r="D310" t="n">
-        <v>10201</v>
+        <v>10099</v>
       </c>
       <c r="E310" t="n">
-        <v>1242.891971375</v>
+        <v>1020.393108228</v>
       </c>
     </row>
     <row r="311">
@@ -8333,10 +8298,10 @@
         </is>
       </c>
       <c r="D311" t="n">
-        <v>10677</v>
+        <v>10665</v>
       </c>
       <c r="E311" t="n">
-        <v>770.559520464</v>
+        <v>731.700140646</v>
       </c>
     </row>
     <row r="312">
@@ -8354,10 +8319,10 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>5304</v>
+        <v>5263</v>
       </c>
       <c r="E312" t="n">
-        <v>1109.539969834</v>
+        <v>917.691620748</v>
       </c>
     </row>
     <row r="313">
@@ -8375,10 +8340,10 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>7197</v>
+        <v>7184</v>
       </c>
       <c r="E313" t="n">
-        <v>686.743504237</v>
+        <v>637.330595768</v>
       </c>
     </row>
     <row r="314">
@@ -8396,10 +8361,10 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>12878</v>
+        <v>12745</v>
       </c>
       <c r="E314" t="n">
-        <v>1308.488740487</v>
+        <v>1070.469909768</v>
       </c>
     </row>
     <row r="315">
@@ -8417,10 +8382,10 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>10452</v>
+        <v>10439</v>
       </c>
       <c r="E315" t="n">
-        <v>768.2378492150001</v>
+        <v>747.123383465</v>
       </c>
     </row>
     <row r="316">
@@ -8438,10 +8403,10 @@
         </is>
       </c>
       <c r="D316" t="n">
-        <v>6047</v>
+        <v>5986</v>
       </c>
       <c r="E316" t="n">
-        <v>1227.713907722</v>
+        <v>1034.171734046</v>
       </c>
     </row>
     <row r="317">
@@ -8459,10 +8424,10 @@
         </is>
       </c>
       <c r="D317" t="n">
-        <v>6267</v>
+        <v>6260</v>
       </c>
       <c r="E317" t="n">
-        <v>709.313228019</v>
+        <v>684.325399361</v>
       </c>
     </row>
     <row r="318">
@@ -8480,10 +8445,10 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>8955</v>
+        <v>8903</v>
       </c>
       <c r="E318" t="n">
-        <v>1014.244891122</v>
+        <v>855.283050657</v>
       </c>
     </row>
     <row r="319">
@@ -8501,10 +8466,10 @@
         </is>
       </c>
       <c r="D319" t="n">
-        <v>11123</v>
+        <v>11111</v>
       </c>
       <c r="E319" t="n">
-        <v>712.0582576640001</v>
+        <v>678.1719917189999</v>
       </c>
     </row>
     <row r="320">
@@ -8522,10 +8487,10 @@
         </is>
       </c>
       <c r="D320" t="n">
-        <v>5989</v>
+        <v>5950</v>
       </c>
       <c r="E320" t="n">
-        <v>1044.784772082</v>
+        <v>873.431932773</v>
       </c>
     </row>
     <row r="321">
@@ -8543,10 +8508,10 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>8353</v>
+        <v>8340</v>
       </c>
       <c r="E321" t="n">
-        <v>701.434694121</v>
+        <v>650.298201438</v>
       </c>
     </row>
     <row r="322">
@@ -8564,10 +8529,10 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>7414</v>
+        <v>7363</v>
       </c>
       <c r="E322" t="n">
-        <v>1021.419611545</v>
+        <v>873.812576395</v>
       </c>
     </row>
     <row r="323">
@@ -8585,10 +8550,10 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>9708</v>
+        <v>9697</v>
       </c>
       <c r="E323" t="n">
-        <v>696.919859909</v>
+        <v>660.391873775</v>
       </c>
     </row>
     <row r="324">
@@ -8606,10 +8571,10 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>9603</v>
+        <v>9515</v>
       </c>
       <c r="E324" t="n">
-        <v>1182.535145267</v>
+        <v>962.926116657</v>
       </c>
     </row>
     <row r="325">
@@ -8627,10 +8592,10 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>8295</v>
+        <v>8283</v>
       </c>
       <c r="E325" t="n">
-        <v>735.9549125970001</v>
+        <v>698.653024266</v>
       </c>
     </row>
     <row r="326">
@@ -8648,10 +8613,10 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>3414</v>
+        <v>3390</v>
       </c>
       <c r="E326" t="n">
-        <v>1082.220269478</v>
+        <v>932.176696165</v>
       </c>
     </row>
     <row r="327">
@@ -8669,10 +8634,10 @@
         </is>
       </c>
       <c r="D327" t="n">
-        <v>3792</v>
+        <v>3787</v>
       </c>
       <c r="E327" t="n">
-        <v>680.403744725</v>
+        <v>635.633218906</v>
       </c>
     </row>
     <row r="328">
@@ -8690,10 +8655,10 @@
         </is>
       </c>
       <c r="D328" t="n">
-        <v>12158</v>
+        <v>12053</v>
       </c>
       <c r="E328" t="n">
-        <v>1235.34676756</v>
+        <v>1027.142288226</v>
       </c>
     </row>
     <row r="329">
@@ -8711,10 +8676,10 @@
         </is>
       </c>
       <c r="D329" t="n">
-        <v>8998</v>
+        <v>8983</v>
       </c>
       <c r="E329" t="n">
-        <v>800.1938208490001</v>
+        <v>744.783257263</v>
       </c>
     </row>
     <row r="330">
@@ -8732,10 +8697,10 @@
         </is>
       </c>
       <c r="D330" t="n">
-        <v>3947</v>
+        <v>3902</v>
       </c>
       <c r="E330" t="n">
-        <v>1395.978464656</v>
+        <v>1065.280112762</v>
       </c>
     </row>
     <row r="331">
@@ -8753,10 +8718,10 @@
         </is>
       </c>
       <c r="D331" t="n">
-        <v>3697</v>
+        <v>3687</v>
       </c>
       <c r="E331" t="n">
-        <v>713.041114417</v>
+        <v>661.977217249</v>
       </c>
     </row>
     <row r="332">
@@ -8774,10 +8739,10 @@
         </is>
       </c>
       <c r="D332" t="n">
-        <v>5451</v>
+        <v>5414</v>
       </c>
       <c r="E332" t="n">
-        <v>1005.56301596</v>
+        <v>827.079054303</v>
       </c>
     </row>
     <row r="333">
@@ -8795,10 +8760,10 @@
         </is>
       </c>
       <c r="D333" t="n">
-        <v>6364</v>
+        <v>6359</v>
       </c>
       <c r="E333" t="n">
-        <v>684.642206159</v>
+        <v>654.045132882</v>
       </c>
     </row>
     <row r="334">
@@ -8816,10 +8781,10 @@
         </is>
       </c>
       <c r="D334" t="n">
-        <v>3267</v>
+        <v>3243</v>
       </c>
       <c r="E334" t="n">
-        <v>1064.178145087</v>
+        <v>848.799259944</v>
       </c>
     </row>
     <row r="335">
@@ -8837,10 +8802,10 @@
         </is>
       </c>
       <c r="D335" t="n">
-        <v>4265</v>
+        <v>4258</v>
       </c>
       <c r="E335" t="n">
-        <v>672.0881594370001</v>
+        <v>629.726397369</v>
       </c>
     </row>
     <row r="336">
@@ -8858,10 +8823,10 @@
         </is>
       </c>
       <c r="D336" t="n">
-        <v>4301</v>
+        <v>4272</v>
       </c>
       <c r="E336" t="n">
-        <v>1036.856312485</v>
+        <v>861.501872659</v>
       </c>
     </row>
     <row r="337">
@@ -8879,10 +8844,10 @@
         </is>
       </c>
       <c r="D337" t="n">
-        <v>5088</v>
+        <v>5079</v>
       </c>
       <c r="E337" t="n">
-        <v>693.511399371</v>
+        <v>634.118724158</v>
       </c>
     </row>
   </sheetData>
@@ -8898,13 +8863,13 @@
   </sheetPr>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" activeCellId="1" sqref="B3 C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <cols>
-    <col width="16.375" bestFit="1" customWidth="1" style="2" min="3" max="3"/>
+    <col width="16.375" bestFit="1" customWidth="1" style="1" min="3" max="3"/>
     <col width="10.875" bestFit="1" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
@@ -8919,7 +8884,7 @@
           <t>total rides</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>average ride length</t>
         </is>
@@ -8937,13 +8902,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2729610</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>0.008414351851851852</v>
+        <v>2726023</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>0.008101851851851851</v>
       </c>
       <c r="D2" t="n">
-        <v>1984653594</v>
+        <v>1908583193</v>
       </c>
     </row>
     <row r="3">
@@ -8953,13 +8918,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1673272</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>0.01563657407407407</v>
+        <v>1650222</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>0.01335648148148148</v>
       </c>
       <c r="D3" t="n">
-        <v>2261695362</v>
+        <v>1905478130</v>
       </c>
     </row>
   </sheetData>
@@ -8979,15 +8944,15 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="7" t="inlineStr">
-        <is>
-          <t>station</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="inlineStr">
+    <row r="1" ht="15" customHeight="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>start_station_name</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>count</t>
         </is>
@@ -9000,7 +8965,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>49711</v>
+        <v>48615</v>
       </c>
     </row>
     <row r="3">
@@ -9010,7 +8975,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>29042</v>
+        <v>28496</v>
       </c>
     </row>
     <row r="4">
@@ -9020,7 +8985,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22352</v>
+        <v>21820</v>
       </c>
     </row>
     <row r="5">
@@ -9030,7 +8995,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21927</v>
+        <v>21139</v>
       </c>
     </row>
     <row r="6">
@@ -9040,7 +9005,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20297</v>
+        <v>19964</v>
       </c>
     </row>
     <row r="7">
@@ -9050,7 +9015,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18508</v>
+        <v>18247</v>
       </c>
     </row>
     <row r="8">
@@ -9060,7 +9025,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16093</v>
+        <v>15830</v>
       </c>
     </row>
     <row r="9">
@@ -9070,7 +9035,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13493</v>
+        <v>13405</v>
       </c>
     </row>
     <row r="10">
@@ -9080,7 +9045,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13191</v>
+        <v>12904</v>
       </c>
     </row>
     <row r="11">
@@ -9090,7 +9055,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11959</v>
+        <v>11692</v>
       </c>
     </row>
   </sheetData>
